--- a/Admin/SanPham/dienthoai.xlsx
+++ b/Admin/SanPham/dienthoai.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>Điện thoại</t>
   </si>
@@ -62,19 +62,13 @@
     <t>Iphone11</t>
   </si>
   <si>
-    <t>Samsung Galaxy Note 20 Ultra 5G</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy S20 Ultra</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy A02s</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy A01 Core</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy S20 FE 256GB (Fan Edition)</t>
+    <t>fdds</t>
+  </si>
+  <si>
+    <t>Iphong 11 proMAX</t>
+  </si>
+  <si>
+    <t>Oppo</t>
   </si>
 </sst>
 </file>
@@ -451,7 +445,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A3" sqref="A3"/>
@@ -460,7 +454,7 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="49.416504" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="34.134521" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="16.424561" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="10.568848" bestFit="true" customWidth="true" style="0"/>
   </cols>
@@ -572,28 +566,28 @@
       <c r="A10" s="3">
         <v>14</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>15</v>
+      <c r="B10" s="3">
+        <v>6341</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D10" s="3">
-        <v>22000000</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3">
         <v>15</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>16</v>
+      <c r="B11" s="3">
+        <v>4984</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D11" s="3">
-        <v>16000000</v>
+        <v>596549</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -601,13 +595,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D12" s="3">
-        <v>3350000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -615,13 +609,13 @@
         <v>17</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D13" s="3">
-        <v>1850000</v>
+        <v>90000000</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -629,13 +623,55 @@
         <v>18</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="3">
+        <v>90000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3">
         <v>19</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="B15" s="3">
+        <v>6341</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="3">
-        <v>12750001</v>
+      <c r="D15" s="3">
+        <v>596549</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3">
+        <v>20</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="3">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3">
+        <v>21</v>
+      </c>
+      <c r="B17" s="3">
+        <v>6341</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Admin/SanPham/dienthoai.xlsx
+++ b/Admin/SanPham/dienthoai.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>Điện thoại</t>
   </si>
@@ -62,13 +62,19 @@
     <t>Iphone11</t>
   </si>
   <si>
-    <t>fdds</t>
-  </si>
-  <si>
-    <t>Iphong 11 proMAX</t>
-  </si>
-  <si>
-    <t>Oppo</t>
+    <t>Samsung Galaxy Note 20 Ultra 5G</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S20 Ultra</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy A02s</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy A01 Core</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S20 FE 256GB (Fan Edition)</t>
   </si>
 </sst>
 </file>
@@ -445,7 +451,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A3" sqref="A3"/>
@@ -454,7 +460,7 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="34.134521" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="49.416504" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="16.424561" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="10.568848" bestFit="true" customWidth="true" style="0"/>
   </cols>
@@ -566,28 +572,28 @@
       <c r="A10" s="3">
         <v>14</v>
       </c>
-      <c r="B10" s="3">
-        <v>6341</v>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D10" s="3">
-        <v>313</v>
+        <v>22000000</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3">
         <v>15</v>
       </c>
-      <c r="B11" s="3">
-        <v>4984</v>
+      <c r="B11" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D11" s="3">
-        <v>596549</v>
+        <v>16000000</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -595,13 +601,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>3350000</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -609,13 +615,13 @@
         <v>17</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D13" s="3">
-        <v>90000000</v>
+        <v>1850000</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -623,55 +629,13 @@
         <v>18</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D14" s="3">
-        <v>90000000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="3">
-        <v>19</v>
-      </c>
-      <c r="B15" s="3">
-        <v>6341</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="3">
-        <v>596549</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="3">
-        <v>20</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="3">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="3">
-        <v>21</v>
-      </c>
-      <c r="B17" s="3">
-        <v>6341</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0</v>
+        <v>12750001</v>
       </c>
     </row>
   </sheetData>
